--- a/biology/Zoologie/Caloprymnus_campestris/Caloprymnus_campestris.xlsx
+++ b/biology/Zoologie/Caloprymnus_campestris/Caloprymnus_campestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rat-kangourou du désert (Caloprymnus campestris) ou kangourou-rat du désert[1],[2] est une espèce de mammifères marsupiaux qui vivait dans la partie centrale de l'Australie. Découverte par la science en 1841, cette espèce n'a pas été revue depuis 1935. Elle est considérée aujourd'hui comme éteinte.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rat-kangourou du désert (Caloprymnus campestris) ou kangourou-rat du désert, est une espèce de mammifères marsupiaux qui vivait dans la partie centrale de l'Australie. Découverte par la science en 1841, cette espèce n'a pas été revue depuis 1935. Elle est considérée aujourd'hui comme éteinte.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le retrouvait en Australie dans les regs, les dunes et sur les sols argileux. Celui-ci construisait son abri sous un buisson ou directement sur le sol à l'air libre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le retrouvait en Australie dans les regs, les dunes et sur les sols argileux. Celui-ci construisait son abri sous un buisson ou directement sur le sol à l'air libre.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Extinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a peu d'information sur l'extinction de cet animal, mais on sait que le dernier spécimen qui fut aperçu de façon confirmée, le fut en 1935. Des observations non confirmées ont été annoncées pour 1956-1957 et 1974-1975, tout de suite après la saison des pluies. Endémique d'Australie centrale, l'espèce n'a jamais été très abondante. Les scientifiques pensent que la dégradation de l'habitat par l'activité humaine et l'introduction d'espèces comme les chats et les renards sont à l'origine de son extinction[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a peu d'information sur l'extinction de cet animal, mais on sait que le dernier spécimen qui fut aperçu de façon confirmée, le fut en 1935. Des observations non confirmées ont été annoncées pour 1956-1957 et 1974-1975, tout de suite après la saison des pluies. Endémique d'Australie centrale, l'espèce n'a jamais été très abondante. Les scientifiques pensent que la dégradation de l'habitat par l'activité humaine et l'introduction d'espèces comme les chats et les renards sont à l'origine de son extinction.
 </t>
         </is>
       </c>
